--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1635396.129204498</v>
+        <v>-1637967.815820117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002516</v>
+        <v>344.2204013002517</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>343.4169297090328</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784824</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>373.248376733617</v>
       </c>
       <c r="H11" t="n">
-        <v>118.6888984117101</v>
+        <v>264.6979105187347</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.4511147810851</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.81790519125262</v>
+        <v>89.81790519125275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>77.94724419421132</v>
       </c>
       <c r="X11" t="n">
-        <v>331.21766031524</v>
+        <v>331.2176603152402</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928246</v>
+        <v>347.7244982928247</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.0197432866383</v>
+        <v>128.0197432866385</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1950586250867</v>
+        <v>134.1950586250869</v>
       </c>
       <c r="D12" t="n">
-        <v>108.9316252014098</v>
+        <v>108.9316252014099</v>
       </c>
       <c r="E12" t="n">
-        <v>119.131640092172</v>
+        <v>119.1316400921721</v>
       </c>
       <c r="F12" t="n">
-        <v>106.5557720301549</v>
+        <v>106.555772030155</v>
       </c>
       <c r="G12" t="n">
-        <v>96.93551735164894</v>
+        <v>96.93551735164904</v>
       </c>
       <c r="H12" t="n">
-        <v>55.42454814858041</v>
+        <v>55.42454814858053</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>97.97911993495501</v>
+        <v>97.97911993495515</v>
       </c>
       <c r="T12" t="n">
-        <v>154.0148842394094</v>
+        <v>154.0148842394095</v>
       </c>
       <c r="U12" t="n">
-        <v>187.3032996487766</v>
+        <v>187.3032996487767</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2871467861963</v>
+        <v>194.2871467861964</v>
       </c>
       <c r="W12" t="n">
-        <v>213.1815427976906</v>
+        <v>213.1815427976907</v>
       </c>
       <c r="X12" t="n">
-        <v>167.2595448402485</v>
+        <v>167.2595448402486</v>
       </c>
       <c r="Y12" t="n">
-        <v>167.1692554140754</v>
+        <v>167.1692554140755</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187083</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353988</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.1020326549835</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>107.9205222833403</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9076076597023</v>
+        <v>106.9076076597024</v>
       </c>
       <c r="G13" t="n">
-        <v>127.8892039961243</v>
+        <v>127.8892039961244</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>109.5919900612544</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7.949270956288336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.36263369052352</v>
       </c>
       <c r="S13" t="n">
-        <v>13.88895728891833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>182.6456267961471</v>
+        <v>182.6456267961472</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7189525387652</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.624202960599</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W13" t="n">
-        <v>248.009557973362</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258082</v>
+        <v>187.1962150258083</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.0712129888658</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002518</v>
+        <v>344.2204013002517</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077787</v>
+        <v>155.962956784903</v>
       </c>
       <c r="D14" t="n">
         <v>316.1696012574541</v>
       </c>
       <c r="E14" t="n">
-        <v>343.416929709033</v>
+        <v>343.4169297090329</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3626053784826</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>372.4082852902246</v>
@@ -1625,7 +1625,7 @@
         <v>256.0943240240916</v>
       </c>
       <c r="I14" t="n">
-        <v>3.063489409697127</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.674321424947</v>
+        <v>70.67432142494692</v>
       </c>
       <c r="T14" t="n">
         <v>165.4045297763913</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541842</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
-        <v>136.7195691970082</v>
+        <v>331.2176603152402</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>347.7244982928247</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933845</v>
       </c>
       <c r="G15" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1771,19 +1771,19 @@
         <v>110.1020326549835</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>107.9205222833403</v>
       </c>
       <c r="F16" t="n">
         <v>106.9076076597024</v>
       </c>
       <c r="G16" t="n">
-        <v>33.69928209426428</v>
+        <v>127.5123678957993</v>
       </c>
       <c r="H16" t="n">
-        <v>106.2415745510919</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660927</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681849</v>
+        <v>50.41871230681843</v>
       </c>
       <c r="S16" t="n">
         <v>151.255584968213</v>
@@ -1828,7 +1828,7 @@
         <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258083</v>
+        <v>149.5431615386354</v>
       </c>
       <c r="Y16" t="n">
         <v>180.0712129888659</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V17" t="n">
         <v>230.06753824203</v>
@@ -1932,7 +1932,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
@@ -1980,7 +1980,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C19" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092329</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
@@ -2096,7 +2096,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592153</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T20" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V20" t="n">
         <v>230.06753824203</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C22" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092329</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V23" t="n">
         <v>230.06753824203</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C25" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092329</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C26" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D26" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E26" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F26" t="n">
-        <v>347.7047658768355</v>
+        <v>347.7047658768354</v>
       </c>
       <c r="G26" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H26" t="n">
-        <v>235.4364845224445</v>
+        <v>235.4364845224444</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329986</v>
+        <v>50.01648192329978</v>
       </c>
       <c r="T26" t="n">
-        <v>144.7466902747442</v>
+        <v>144.7466902747441</v>
       </c>
       <c r="U26" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V26" t="n">
-        <v>268.580978605259</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W26" t="n">
-        <v>290.0696888525371</v>
+        <v>290.069688852537</v>
       </c>
       <c r="X26" t="n">
-        <v>310.5598208135931</v>
+        <v>310.559820813593</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="27">
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609195</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C28" t="n">
-        <v>108.0755412337519</v>
+        <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333639</v>
+        <v>89.4441931533363</v>
       </c>
       <c r="E28" t="n">
-        <v>87.2626827816932</v>
+        <v>87.26268278169312</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805528</v>
+        <v>86.24976815805519</v>
       </c>
       <c r="G28" t="n">
-        <v>106.8545283941523</v>
+        <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944481</v>
+        <v>85.58373504944473</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496213</v>
+        <v>37.18114054496204</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.76087280517136</v>
+        <v>29.76087280517127</v>
       </c>
       <c r="S28" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T28" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U28" t="n">
-        <v>227.0405583407369</v>
+        <v>227.0405583407368</v>
       </c>
       <c r="V28" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W28" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X28" t="n">
-        <v>166.5383755241612</v>
+        <v>166.5383755241611</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>323.5625617986045</v>
       </c>
       <c r="C29" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D29" t="n">
         <v>295.5117617558069</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329981</v>
+        <v>50.01648192329979</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V29" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W29" t="n">
         <v>290.069688852537</v>
@@ -2858,7 +2858,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y29" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C31" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333633</v>
+        <v>89.4441931533363</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169314</v>
+        <v>87.26268278169312</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805522</v>
+        <v>86.24976815805519</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944475</v>
+        <v>85.58373504944473</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496204</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517127</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U31" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V31" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W31" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X31" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333633</v>
+        <v>89.44419315333631</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169314</v>
+        <v>87.26268278169313</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805522</v>
+        <v>86.2497681580552</v>
       </c>
       <c r="G34" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H34" t="n">
-        <v>85.58373504944475</v>
+        <v>85.58373504944474</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496206</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517129</v>
       </c>
       <c r="S34" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U34" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V34" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W34" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X34" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.0675382420299</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3591,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G39" t="n">
         <v>134.9994691657081</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333683</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,10 +3724,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925783</v>
       </c>
       <c r="E41" t="n">
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247742</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>884.8823120628273</v>
+        <v>1098.308144297872</v>
       </c>
       <c r="C11" t="n">
-        <v>884.8823120628273</v>
+        <v>1098.308144297872</v>
       </c>
       <c r="D11" t="n">
-        <v>884.8823120628273</v>
+        <v>1098.308144297872</v>
       </c>
       <c r="E11" t="n">
-        <v>537.9965244779455</v>
+        <v>1098.308144297872</v>
       </c>
       <c r="F11" t="n">
-        <v>165.9130847017006</v>
+        <v>726.2247045216266</v>
       </c>
       <c r="G11" t="n">
-        <v>165.9130847017006</v>
+        <v>349.2061421644377</v>
       </c>
       <c r="H11" t="n">
-        <v>46.02530852825605</v>
+        <v>81.83451537783696</v>
       </c>
       <c r="I11" t="n">
-        <v>46.02530852825605</v>
+        <v>46.02530852825604</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3157454550868</v>
+        <v>164.3157454550874</v>
       </c>
       <c r="K11" t="n">
-        <v>392.3409650219234</v>
+        <v>392.3409650219237</v>
       </c>
       <c r="L11" t="n">
-        <v>712.1281751217075</v>
+        <v>712.1281751217073</v>
       </c>
       <c r="M11" t="n">
-        <v>1099.622500200641</v>
+        <v>1099.62250020064</v>
       </c>
       <c r="N11" t="n">
-        <v>1498.000696951029</v>
+        <v>1498.000696951028</v>
       </c>
       <c r="O11" t="n">
-        <v>1860.842670219303</v>
+        <v>1860.842670219302</v>
       </c>
       <c r="P11" t="n">
-        <v>2136.018898899082</v>
+        <v>2136.018898899081</v>
       </c>
       <c r="Q11" t="n">
-        <v>2294.492040045692</v>
+        <v>2294.492040045691</v>
       </c>
       <c r="R11" t="n">
-        <v>2301.265426412803</v>
+        <v>2301.265426412802</v>
       </c>
       <c r="S11" t="n">
-        <v>2210.540269653961</v>
+        <v>2210.54026965396</v>
       </c>
       <c r="T11" t="n">
-        <v>2210.540269653961</v>
+        <v>2210.54026965396</v>
       </c>
       <c r="U11" t="n">
-        <v>2210.540269653961</v>
+        <v>2210.54026965396</v>
       </c>
       <c r="V11" t="n">
-        <v>1918.379847323753</v>
+        <v>2210.54026965396</v>
       </c>
       <c r="W11" t="n">
-        <v>1918.379847323753</v>
+        <v>2131.805679558797</v>
       </c>
       <c r="X11" t="n">
-        <v>1583.816554076036</v>
+        <v>1797.24238631108</v>
       </c>
       <c r="Y11" t="n">
-        <v>1232.579687113586</v>
+        <v>1446.005519348631</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>673.4739564565921</v>
+        <v>673.4739564565928</v>
       </c>
       <c r="C12" t="n">
-        <v>537.9233921888277</v>
+        <v>537.9233921888283</v>
       </c>
       <c r="D12" t="n">
-        <v>427.8914475409391</v>
+        <v>427.8914475409396</v>
       </c>
       <c r="E12" t="n">
-        <v>307.5564575488462</v>
+        <v>307.5564575488465</v>
       </c>
       <c r="F12" t="n">
-        <v>199.9243645890938</v>
+        <v>199.924364589094</v>
       </c>
       <c r="G12" t="n">
-        <v>102.0097005975292</v>
+        <v>102.0097005975293</v>
       </c>
       <c r="H12" t="n">
-        <v>46.02530852825605</v>
+        <v>46.02530852825604</v>
       </c>
       <c r="I12" t="n">
-        <v>46.02530852825605</v>
+        <v>46.02530852825604</v>
       </c>
       <c r="J12" t="n">
-        <v>97.66043543426392</v>
+        <v>135.7887413938604</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0679163635658</v>
+        <v>340.3245282827587</v>
       </c>
       <c r="L12" t="n">
-        <v>557.7654841527919</v>
+        <v>634.0220960719882</v>
       </c>
       <c r="M12" t="n">
-        <v>892.29056397736</v>
+        <v>968.547175896556</v>
       </c>
       <c r="N12" t="n">
-        <v>1288.206478129787</v>
+        <v>1326.334784089386</v>
       </c>
       <c r="O12" t="n">
-        <v>1631.420750904156</v>
+        <v>1631.420750904158</v>
       </c>
       <c r="P12" t="n">
-        <v>1895.07437584328</v>
+        <v>1856.946069883685</v>
       </c>
       <c r="Q12" t="n">
-        <v>1995.912882666683</v>
+        <v>1995.912882666685</v>
       </c>
       <c r="R12" t="n">
-        <v>1995.912882666683</v>
+        <v>1995.912882666685</v>
       </c>
       <c r="S12" t="n">
-        <v>1896.944074651577</v>
+        <v>1896.944074651579</v>
       </c>
       <c r="T12" t="n">
-        <v>1741.373484510759</v>
+        <v>1741.373484510761</v>
       </c>
       <c r="U12" t="n">
-        <v>1552.178232340278</v>
+        <v>1552.178232340279</v>
       </c>
       <c r="V12" t="n">
-        <v>1355.928589121898</v>
+        <v>1355.928589121899</v>
       </c>
       <c r="W12" t="n">
-        <v>1140.593697407059</v>
+        <v>1140.59369740706</v>
       </c>
       <c r="X12" t="n">
-        <v>971.6446622148889</v>
+        <v>971.6446622148898</v>
       </c>
       <c r="Y12" t="n">
-        <v>802.7868284632975</v>
+        <v>802.7868284632983</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.2275230648476</v>
+        <v>752.180872515218</v>
       </c>
       <c r="C13" t="n">
-        <v>283.1938051503031</v>
+        <v>622.1471546006735</v>
       </c>
       <c r="D13" t="n">
-        <v>283.1938051503031</v>
+        <v>510.9329802017002</v>
       </c>
       <c r="E13" t="n">
-        <v>283.1938051503031</v>
+        <v>401.9223516326696</v>
       </c>
       <c r="F13" t="n">
-        <v>175.2063226657554</v>
+        <v>293.9348691481217</v>
       </c>
       <c r="G13" t="n">
-        <v>46.02530852825605</v>
+        <v>164.7538550106224</v>
       </c>
       <c r="H13" t="n">
-        <v>46.02530852825605</v>
+        <v>54.05487515076951</v>
       </c>
       <c r="I13" t="n">
-        <v>46.02530852825605</v>
+        <v>46.02530852825604</v>
       </c>
       <c r="J13" t="n">
-        <v>102.9003577647395</v>
+        <v>102.9003577647389</v>
       </c>
       <c r="K13" t="n">
-        <v>301.6721584138286</v>
+        <v>301.6721584138279</v>
       </c>
       <c r="L13" t="n">
-        <v>600.8952645594829</v>
+        <v>600.895264559482</v>
       </c>
       <c r="M13" t="n">
-        <v>924.7005522174895</v>
+        <v>924.7005522174884</v>
       </c>
       <c r="N13" t="n">
-        <v>1247.147696192011</v>
+        <v>1247.14769619201</v>
       </c>
       <c r="O13" t="n">
-        <v>1531.87417188134</v>
+        <v>1531.874171881339</v>
       </c>
       <c r="P13" t="n">
-        <v>1757.48913096608</v>
+        <v>1757.489130966078</v>
       </c>
       <c r="Q13" t="n">
-        <v>1841.988397197347</v>
+        <v>1841.988397197345</v>
       </c>
       <c r="R13" t="n">
-        <v>1841.988397197347</v>
+        <v>1773.945332863484</v>
       </c>
       <c r="S13" t="n">
-        <v>1827.95914741056</v>
+        <v>1773.945332863484</v>
       </c>
       <c r="T13" t="n">
-        <v>1643.46861529324</v>
+        <v>1589.454800746163</v>
       </c>
       <c r="U13" t="n">
-        <v>1393.247451112669</v>
+        <v>1589.454800746163</v>
       </c>
       <c r="V13" t="n">
-        <v>1177.465427920145</v>
+        <v>1373.672777553639</v>
       </c>
       <c r="W13" t="n">
-        <v>926.9507228965469</v>
+        <v>1123.15807253004</v>
       </c>
       <c r="X13" t="n">
-        <v>737.8636370118921</v>
+        <v>934.0709866453856</v>
       </c>
       <c r="Y13" t="n">
-        <v>555.9735228817246</v>
+        <v>752.180872515218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2072.850183580428</v>
+        <v>1525.150598316735</v>
       </c>
       <c r="C14" t="n">
-        <v>1742.790131653378</v>
+        <v>1367.612258129964</v>
       </c>
       <c r="D14" t="n">
-        <v>1423.42689805999</v>
+        <v>1048.249024536576</v>
       </c>
       <c r="E14" t="n">
-        <v>1076.541110475109</v>
+        <v>701.3632369516947</v>
       </c>
       <c r="F14" t="n">
-        <v>704.4576706988635</v>
+        <v>701.3632369516947</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2876855572224</v>
+        <v>325.1932518100537</v>
       </c>
       <c r="H14" t="n">
-        <v>69.60655017935224</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.217618149628</v>
+        <v>3254.217618149629</v>
       </c>
       <c r="T14" t="n">
-        <v>3087.142335547212</v>
+        <v>3087.142335547213</v>
       </c>
       <c r="U14" t="n">
-        <v>2872.514323834412</v>
+        <v>2872.514323834413</v>
       </c>
       <c r="V14" t="n">
-        <v>2872.514323834412</v>
+        <v>2872.514323834413</v>
       </c>
       <c r="W14" t="n">
-        <v>2558.64813357766</v>
+        <v>2558.648133577661</v>
       </c>
       <c r="X14" t="n">
-        <v>2420.547558631187</v>
+        <v>2224.084840329943</v>
       </c>
       <c r="Y14" t="n">
-        <v>2420.547558631187</v>
+        <v>1872.847973367494</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.5251040504161</v>
+        <v>653.558491411198</v>
       </c>
       <c r="C16" t="n">
-        <v>485.4913861358716</v>
+        <v>523.5247734966537</v>
       </c>
       <c r="D16" t="n">
-        <v>374.2772117368984</v>
+        <v>412.3105990976805</v>
       </c>
       <c r="E16" t="n">
-        <v>374.2772117368984</v>
+        <v>303.2999705286499</v>
       </c>
       <c r="F16" t="n">
-        <v>266.2897292523505</v>
+        <v>195.3124880441019</v>
       </c>
       <c r="G16" t="n">
-        <v>232.2500503692553</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>124.9353286004756</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>149.7630548387152</v>
+        <v>149.7630548387156</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8785437471881</v>
+        <v>391.8785437471886</v>
       </c>
       <c r="L16" t="n">
-        <v>746.5666481552807</v>
+        <v>746.5666481552814</v>
       </c>
       <c r="M16" t="n">
-        <v>1128.851999714426</v>
+        <v>1128.851999714427</v>
       </c>
       <c r="N16" t="n">
-        <v>1508.388682379887</v>
+        <v>1508.388682379888</v>
       </c>
       <c r="O16" t="n">
-        <v>1845.846587259897</v>
+        <v>1845.846587259899</v>
       </c>
       <c r="P16" t="n">
-        <v>2116.582393653153</v>
+        <v>2116.582393653154</v>
       </c>
       <c r="Q16" t="n">
-        <v>2232.320995765264</v>
+        <v>2232.320995765266</v>
       </c>
       <c r="R16" t="n">
-        <v>2181.393003536155</v>
+        <v>2181.393003536156</v>
       </c>
       <c r="S16" t="n">
-        <v>2028.609584376343</v>
+        <v>2028.609584376345</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.745433959232</v>
+        <v>1845.745433959234</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.545032098238</v>
+        <v>1595.54503209824</v>
       </c>
       <c r="V16" t="n">
-        <v>1379.763008905714</v>
+        <v>1379.763008905715</v>
       </c>
       <c r="W16" t="n">
-        <v>1129.248303882116</v>
+        <v>1129.248303882117</v>
       </c>
       <c r="X16" t="n">
-        <v>940.1612179974609</v>
+        <v>978.1946053582428</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.2711038672933</v>
+        <v>796.3044912280752</v>
       </c>
     </row>
     <row r="17">
@@ -5498,49 +5498,49 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T17" t="n">
         <v>3206.680274668175</v>
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C19" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D19" t="n">
         <v>280.5494426245367</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159869</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G19" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
         <v>67.83109325226759</v>
@@ -5677,22 +5677,22 @@
         <v>371.3804471090252</v>
       </c>
       <c r="L19" t="n">
-        <v>527.0902910313825</v>
+        <v>623.7981640572063</v>
       </c>
       <c r="M19" t="n">
-        <v>694.5227723305803</v>
+        <v>887.938518382228</v>
       </c>
       <c r="N19" t="n">
-        <v>962.5394823862517</v>
+        <v>1143.477546463671</v>
       </c>
       <c r="O19" t="n">
-        <v>1176.02298077356</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552143</v>
+        <v>1477.054771460443</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R19" t="n">
         <v>1489.975538818984</v>
@@ -5707,16 +5707,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734889</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,19 +5750,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5780,22 +5780,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C22" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D22" t="n">
         <v>280.5494426245367</v>
@@ -5905,19 +5905,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J22" t="n">
-        <v>155.2189959588258</v>
+        <v>155.2189959588255</v>
       </c>
       <c r="K22" t="n">
-        <v>350.2377232523201</v>
+        <v>253.5298502264959</v>
       </c>
       <c r="L22" t="n">
-        <v>602.6554402005012</v>
+        <v>505.947567174677</v>
       </c>
       <c r="M22" t="n">
-        <v>866.7957945255229</v>
+        <v>770.0879214996987</v>
       </c>
       <c r="N22" t="n">
         <v>1038.10463155537</v>
@@ -5926,7 +5926,7 @@
         <v>1272.730853799384</v>
       </c>
       <c r="P22" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q22" t="n">
         <v>1481.310496936507</v>
@@ -5944,16 +5944,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734889</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464988</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307346</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6020,19 +6020,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960654</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C25" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D25" t="n">
         <v>280.5494426245367</v>
@@ -6139,34 +6139,34 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>262.194892108973</v>
+        <v>350.23772325232</v>
       </c>
       <c r="L25" t="n">
-        <v>417.9047360313302</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M25" t="n">
-        <v>682.0450903563519</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N25" t="n">
-        <v>950.0618004120233</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O25" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
         <v>1489.975538818984</v>
@@ -6181,16 +6181,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734889</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C26" t="n">
         <v>1646.478165174436</v>
@@ -6209,34 +6209,34 @@
         <v>1347.981436128166</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.962153090402</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612757</v>
+        <v>670.7452178612766</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H26" t="n">
         <v>77.6271064360013</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703182</v>
+        <v>95.0455130270319</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522845</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083582</v>
+        <v>734.9031518083584</v>
       </c>
       <c r="L26" t="n">
-        <v>1244.516932122994</v>
+        <v>1244.516932122995</v>
       </c>
       <c r="M26" t="n">
         <v>1836.628403861146</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O26" t="n">
         <v>3003.53882593172</v>
@@ -6263,10 +6263,10 @@
         <v>3219.569419883571</v>
       </c>
       <c r="W26" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X26" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473339</v>
       </c>
       <c r="Y26" t="n">
         <v>2282.502583058008</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F27" t="n">
         <v>323.4993925639777</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222599</v>
+        <v>684.3458835222592</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548338</v>
+        <v>575.1786701548332</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029788</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810665</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5658983436369</v>
+        <v>309.5658983436366</v>
       </c>
       <c r="G28" t="n">
-        <v>201.6320312788366</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1838140571752</v>
+        <v>115.1838140571751</v>
       </c>
       <c r="I28" t="n">
         <v>77.6271064360013</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3293059491641</v>
+        <v>181.3293059491642</v>
       </c>
       <c r="K28" t="n">
-        <v>348.539242130058</v>
+        <v>443.8960559642678</v>
       </c>
       <c r="L28" t="n">
-        <v>723.6786076447813</v>
+        <v>819.0354214789912</v>
       </c>
       <c r="M28" t="n">
-        <v>1126.415220310558</v>
+        <v>1061.725691516582</v>
       </c>
       <c r="N28" t="n">
-        <v>1526.403164082649</v>
+        <v>1461.713635288674</v>
       </c>
       <c r="O28" t="n">
-        <v>1884.31233006929</v>
+        <v>1819.622801275314</v>
       </c>
       <c r="P28" t="n">
-        <v>2041.842899888276</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q28" t="n">
-        <v>2113.343234313044</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R28" t="n">
-        <v>2083.281746631053</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.033288834491</v>
+        <v>1560.03328883449</v>
       </c>
       <c r="V28" t="n">
         <v>1365.117770189084</v>
       </c>
       <c r="W28" t="n">
-        <v>1135.469569712605</v>
+        <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750682</v>
+        <v>967.2489883750674</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920188</v>
+        <v>806.2253787920181</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>1955.671712554367</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174437</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D29" t="n">
-        <v>1347.981436128167</v>
+        <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090404</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612771</v>
+        <v>670.7452178612762</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667535</v>
       </c>
       <c r="H29" t="n">
-        <v>77.62710643600131</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703189</v>
+        <v>95.04551302703203</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522847</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083583</v>
+        <v>734.9031518083585</v>
       </c>
       <c r="L29" t="n">
-        <v>1244.516932122994</v>
+        <v>1244.516932122995</v>
       </c>
       <c r="M29" t="n">
         <v>1836.628403861146</v>
       </c>
       <c r="N29" t="n">
-        <v>2441.986787986156</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O29" t="n">
-        <v>3003.538825931721</v>
+        <v>3003.53882593172</v>
       </c>
       <c r="P29" t="n">
-        <v>3456.892759355126</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q29" t="n">
         <v>3763.758688177035</v>
@@ -6500,10 +6500,10 @@
         <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173938</v>
+        <v>2926.569734173937</v>
       </c>
       <c r="X29" t="n">
-        <v>2612.872945473339</v>
+        <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
         <v>2282.502583058008</v>
@@ -6537,16 +6537,16 @@
         <v>96.63439803446335</v>
       </c>
       <c r="I30" t="n">
-        <v>77.62710643600131</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266187</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K30" t="n">
         <v>409.5685749069658</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196312</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222594</v>
+        <v>684.3458835222592</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548334</v>
+        <v>575.1786701548332</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436367</v>
+        <v>309.5658983436366</v>
       </c>
       <c r="G31" t="n">
         <v>201.6320312788365</v>
@@ -6616,40 +6616,40 @@
         <v>115.1838140571751</v>
       </c>
       <c r="I31" t="n">
-        <v>77.62710643600131</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J31" t="n">
         <v>148.029427039668</v>
       </c>
       <c r="K31" t="n">
-        <v>376.2939941513799</v>
+        <v>410.5961770547717</v>
       </c>
       <c r="L31" t="n">
-        <v>751.4333596661033</v>
+        <v>785.7355425694951</v>
       </c>
       <c r="M31" t="n">
-        <v>1154.16997233188</v>
+        <v>1188.472155235271</v>
       </c>
       <c r="N31" t="n">
-        <v>1554.157916103972</v>
+        <v>1461.713635288674</v>
       </c>
       <c r="O31" t="n">
-        <v>1750.655832388388</v>
+        <v>1819.622801275314</v>
       </c>
       <c r="P31" t="n">
-        <v>2041.842899888275</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313043</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.281746631052</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U31" t="n">
         <v>1560.03328883449</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750676</v>
+        <v>967.2489883750674</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920183</v>
+        <v>806.2253787920181</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1955.671712554367</v>
+        <v>1955.671712554368</v>
       </c>
       <c r="C32" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174437</v>
       </c>
       <c r="D32" t="n">
-        <v>1347.981436128166</v>
+        <v>1347.981436128167</v>
       </c>
       <c r="E32" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090404</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612766</v>
+        <v>670.7452178612771</v>
       </c>
       <c r="G32" t="n">
         <v>315.4417372667532</v>
@@ -6695,13 +6695,13 @@
         <v>77.6271064360013</v>
       </c>
       <c r="I32" t="n">
-        <v>95.0455130270318</v>
+        <v>95.0455130270319</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522843</v>
+        <v>342.5042110522841</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083581</v>
+        <v>734.9031518083578</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
@@ -6710,13 +6710,13 @@
         <v>1836.628403861146</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.986787986156</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O32" t="n">
         <v>3003.53882593172</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355126</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q32" t="n">
         <v>3763.758688177035</v>
@@ -6731,10 +6731,10 @@
         <v>3684.624844832344</v>
       </c>
       <c r="U32" t="n">
-        <v>3490.863337666661</v>
+        <v>3490.863337666662</v>
       </c>
       <c r="V32" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.569419883572</v>
       </c>
       <c r="W32" t="n">
         <v>2926.569734173938</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849262</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037993</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425481</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370926</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639776</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G33" t="n">
-        <v>187.1362923965962</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446373</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
-        <v>77.62710643600131</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3043759266187</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K33" t="n">
         <v>409.5685749069658</v>
       </c>
       <c r="L33" t="n">
-        <v>776.2667352196312</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M33" t="n">
         <v>1223.543060441947</v>
@@ -6822,7 +6822,7 @@
         <v>1328.634480269948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222594</v>
+        <v>684.3458835222593</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548334</v>
+        <v>575.1786701548333</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029784</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F34" t="n">
         <v>309.5658983436367</v>
@@ -6853,22 +6853,22 @@
         <v>115.1838140571751</v>
       </c>
       <c r="I34" t="n">
-        <v>77.62710643600131</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J34" t="n">
-        <v>148.0294270396681</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K34" t="n">
-        <v>391.6073087495075</v>
+        <v>410.5961770547717</v>
       </c>
       <c r="L34" t="n">
-        <v>766.7466742642309</v>
+        <v>624.8855880433563</v>
       </c>
       <c r="M34" t="n">
-        <v>992.7587226296559</v>
+        <v>992.7587226296555</v>
       </c>
       <c r="N34" t="n">
-        <v>1392.746666401748</v>
+        <v>1392.746666401747</v>
       </c>
       <c r="O34" t="n">
         <v>1750.655832388388</v>
@@ -6880,13 +6880,13 @@
         <v>2113.343234313043</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.281746631052</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U34" t="n">
         <v>1560.03328883449</v>
@@ -6898,10 +6898,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750676</v>
+        <v>967.2489883750675</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920183</v>
+        <v>806.2253787920182</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,64 +6920,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J37" t="n">
-        <v>79.65384678970702</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K37" t="n">
-        <v>274.6725740832013</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L37" t="n">
-        <v>527.0902910313823</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M37" t="n">
-        <v>791.230645356404</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.247355412075</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O37" t="n">
-        <v>1293.873577656089</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P37" t="n">
         <v>1392.824580408848</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7151,58 +7151,58 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464984</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307344</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954469</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K40" t="n">
-        <v>273.3535972631173</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L40" t="n">
-        <v>429.0634411854745</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M40" t="n">
-        <v>693.2037955104963</v>
+        <v>789.9116685363201</v>
       </c>
       <c r="N40" t="n">
-        <v>941.3967585295442</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.022980773558</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552141</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.236426073488</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7406,19 +7406,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,22 +7436,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
@@ -7564,28 +7564,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J43" t="n">
-        <v>175.0427429954468</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K43" t="n">
-        <v>370.0614702889411</v>
+        <v>177.9647010573775</v>
       </c>
       <c r="L43" t="n">
-        <v>525.7713142112983</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996988</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295463</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.02298077356</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552143</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q43" t="n">
         <v>1481.310496936507</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464963</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,7 +7673,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919198</v>
@@ -7801,55 +7801,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226768</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J46" t="n">
-        <v>163.8840378413014</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>262.1948921089718</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L46" t="n">
-        <v>514.612609057153</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>682.0450903563508</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>950.0618004120222</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O46" t="n">
-        <v>1184.688022656036</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
   </sheetData>
@@ -10033,13 +10033,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>10.42375237070337</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>16.84668855774282</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>72.09509674526691</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10279,16 +10279,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>43.79098581548226</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10507,13 +10507,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>87.56309128883012</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>143.2940264857314</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.54273168673646</v>
+        <v>14.54273168673647</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077786</v>
+        <v>326.7594514077787</v>
       </c>
       <c r="D11" t="n">
-        <v>316.169601257454</v>
+        <v>316.1696012574541</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>343.4169297090329</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>373.2483767336169</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>146.0090121070245</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>35.45111478108494</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>169.0820300698417</v>
+        <v>169.0820300698418</v>
       </c>
       <c r="U11" t="n">
-        <v>212.5489389111444</v>
+        <v>212.5489389111445</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
-        <v>310.727528354184</v>
+        <v>232.7802841599728</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9205222833402</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.5919900612543</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.17146931820157</v>
+        <v>61.22219836191336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.36263369052338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>143.9338531731406</v>
+        <v>157.8228104620591</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>247.7189525387653</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>170.7964946228757</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.063489409697041</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>194.498091118232</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833403</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>93.8130858015351</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>106.2415745510919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.8389800466092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>37.65305348717291</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1262455.312889742</v>
+        <v>1262455.312889741</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1262455.312889742</v>
+        <v>1262455.312889741</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>184337.1762113337</v>
+      </c>
+      <c r="C2" t="n">
         <v>184337.1762113336</v>
       </c>
-      <c r="C2" t="n">
-        <v>184337.1762113337</v>
-      </c>
       <c r="D2" t="n">
-        <v>184350.7879157203</v>
+        <v>184350.7879157204</v>
       </c>
       <c r="E2" t="n">
         <v>147600.9233927115</v>
@@ -26332,7 +26332,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="I2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="J2" t="n">
         <v>184734.3982194639</v>
@@ -26344,16 +26344,16 @@
         <v>184734.3982194639</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>161906.308341135</v>
+        <v>161906.3083411334</v>
       </c>
       <c r="E3" t="n">
-        <v>758343.5965725852</v>
+        <v>758343.5965725861</v>
       </c>
       <c r="F3" t="n">
-        <v>238556.5016603819</v>
+        <v>238556.5016603828</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190104</v>
+        <v>47337.02389190067</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698652</v>
+        <v>36352.13055698655</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190087</v>
+        <v>47337.02389190083</v>
       </c>
       <c r="M3" t="n">
-        <v>139558.1400101343</v>
+        <v>139558.1400101342</v>
       </c>
       <c r="N3" t="n">
-        <v>62722.15499356527</v>
+        <v>62722.15499356533</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>401722.4498602141</v>
+        <v>401722.4498602147</v>
       </c>
       <c r="E4" t="n">
-        <v>71940.62760287934</v>
+        <v>71940.62760287926</v>
       </c>
       <c r="F4" t="n">
-        <v>54179.49125338267</v>
+        <v>54179.49125338265</v>
       </c>
       <c r="G4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="J4" t="n">
+        <v>95033.13778715176</v>
+      </c>
+      <c r="K4" t="n">
+        <v>95033.13778715179</v>
+      </c>
+      <c r="L4" t="n">
+        <v>95033.13778715176</v>
+      </c>
+      <c r="M4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.137826577</v>
       </c>
-      <c r="H4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="I4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="J4" t="n">
-        <v>95033.13778715173</v>
-      </c>
-      <c r="K4" t="n">
-        <v>95033.13778715182</v>
-      </c>
-      <c r="L4" t="n">
-        <v>95033.13778715179</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93774.13782657695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657708</v>
-      </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657702</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37748.92160594845</v>
+        <v>37748.92160594842</v>
       </c>
       <c r="E5" t="n">
-        <v>57418.54709764832</v>
+        <v>57418.54709764829</v>
       </c>
       <c r="F5" t="n">
-        <v>77544.12697928958</v>
+        <v>77544.12697928961</v>
       </c>
       <c r="G5" t="n">
         <v>82518.59730624985</v>
@@ -26491,13 +26491,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="K5" t="n">
-        <v>87728.20329125517</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="L5" t="n">
-        <v>87728.20329125517</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316906.3837203976</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="C6" t="n">
-        <v>-316906.3837203975</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="D6" t="n">
-        <v>-417026.8918915773</v>
+        <v>-417031.1542282843</v>
       </c>
       <c r="E6" t="n">
-        <v>-740101.8478804014</v>
+        <v>-740514.4420451439</v>
       </c>
       <c r="F6" t="n">
-        <v>-201526.5569658954</v>
+        <v>-201704.1218024774</v>
       </c>
       <c r="G6" t="n">
-        <v>-38895.36080526416</v>
+        <v>-38895.36080526379</v>
       </c>
       <c r="H6" t="n">
-        <v>8441.663086636821</v>
+        <v>8441.66308663688</v>
       </c>
       <c r="I6" t="n">
-        <v>8441.66308663688</v>
+        <v>8441.663086636792</v>
       </c>
       <c r="J6" t="n">
-        <v>-34379.07341592948</v>
+        <v>-34379.07341592955</v>
       </c>
       <c r="K6" t="n">
-        <v>1973.057141056983</v>
+        <v>1973.057141056939</v>
       </c>
       <c r="L6" t="n">
-        <v>-45363.96675084392</v>
+        <v>-45363.9667508439</v>
       </c>
       <c r="M6" t="n">
-        <v>-131116.4769234973</v>
+        <v>-131116.4769234975</v>
       </c>
       <c r="N6" t="n">
-        <v>-54280.49190692863</v>
+        <v>-54280.49190692855</v>
       </c>
       <c r="O6" t="n">
-        <v>8441.663086636909</v>
+        <v>8441.663086636807</v>
       </c>
       <c r="P6" t="n">
-        <v>8441.663086636792</v>
+        <v>8441.663086636763</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141494</v>
+        <v>189.0514498141476</v>
       </c>
       <c r="E3" t="n">
-        <v>880.8039540494229</v>
+        <v>880.8039540494225</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.3163566032007</v>
+        <v>575.3163566032005</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>970.3388304500162</v>
       </c>
       <c r="K4" t="n">
-        <v>970.3388304500163</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="L4" t="n">
-        <v>970.3388304500163</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487609</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322886</v>
+        <v>38.51344036322892</v>
       </c>
       <c r="N2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0514498141494</v>
+        <v>189.0514498141476</v>
       </c>
       <c r="E3" t="n">
-        <v>691.7525042352736</v>
+        <v>691.752504235275</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9727465438751</v>
+        <v>208.972746543876</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.3163566032007</v>
+        <v>575.3163566032005</v>
       </c>
       <c r="F4" t="n">
-        <v>256.085098799092</v>
+        <v>256.0850987990923</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477233</v>
+        <v>138.9373750477234</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>436.3789815554773</v>
+        <v>436.3789815554769</v>
       </c>
       <c r="N4" t="n">
-        <v>256.0850987990917</v>
+        <v>256.0850987990925</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.3163566032007</v>
+        <v>575.3163566032005</v>
       </c>
       <c r="N4" t="n">
-        <v>256.085098799092</v>
+        <v>256.0850987990923</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,40 +27871,40 @@
         <v>331.6913924256801</v>
       </c>
       <c r="I8" t="n">
-        <v>181.1757648710692</v>
+        <v>181.1757648710695</v>
       </c>
       <c r="J8" t="n">
-        <v>116.5413598486414</v>
+        <v>116.541359848642</v>
       </c>
       <c r="K8" t="n">
-        <v>123.4142596508233</v>
+        <v>123.4142596508243</v>
       </c>
       <c r="L8" t="n">
-        <v>115.8317952049766</v>
+        <v>115.8317952049778</v>
       </c>
       <c r="M8" t="n">
-        <v>96.89585981147872</v>
+        <v>96.89585981147999</v>
       </c>
       <c r="N8" t="n">
-        <v>93.8033236208594</v>
+        <v>93.80332362086071</v>
       </c>
       <c r="O8" t="n">
-        <v>102.0457794020937</v>
+        <v>102.0457794020949</v>
       </c>
       <c r="P8" t="n">
-        <v>121.9432076242667</v>
+        <v>121.9432076242678</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.2336104729712</v>
+        <v>140.233610472972</v>
       </c>
       <c r="R8" t="n">
-        <v>167.8448216959891</v>
+        <v>167.8448216959896</v>
       </c>
       <c r="S8" t="n">
-        <v>191.7014367716125</v>
+        <v>191.7014367716126</v>
       </c>
       <c r="T8" t="n">
-        <v>219.7689240503165</v>
+        <v>219.7689240503166</v>
       </c>
       <c r="U8" t="n">
         <v>251.2848524415646</v>
@@ -27947,40 +27947,40 @@
         <v>136.9368781956859</v>
       </c>
       <c r="H9" t="n">
-        <v>108.308167892244</v>
+        <v>108.3081678922441</v>
       </c>
       <c r="I9" t="n">
-        <v>85.52187168829177</v>
+        <v>85.5218716882919</v>
       </c>
       <c r="J9" t="n">
-        <v>88.41916175679317</v>
+        <v>88.41916175679354</v>
       </c>
       <c r="K9" t="n">
-        <v>72.1781632403256</v>
+        <v>72.17816324032624</v>
       </c>
       <c r="L9" t="n">
-        <v>50.26200220393581</v>
+        <v>50.26200220393666</v>
       </c>
       <c r="M9" t="n">
-        <v>39.10099377330691</v>
+        <v>39.10099377330789</v>
       </c>
       <c r="N9" t="n">
-        <v>25.58169394626495</v>
+        <v>25.58169394626596</v>
       </c>
       <c r="O9" t="n">
-        <v>45.84648974568819</v>
+        <v>45.84648974568911</v>
       </c>
       <c r="P9" t="n">
-        <v>56.32419965953366</v>
+        <v>56.32419965953441</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.07466658233278</v>
+        <v>88.07466658233329</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4322178925573</v>
+        <v>120.4322178925576</v>
       </c>
       <c r="S9" t="n">
-        <v>164.1300306324895</v>
+        <v>164.1300306324896</v>
       </c>
       <c r="T9" t="n">
         <v>198.5256882950178</v>
@@ -28029,40 +28029,40 @@
         <v>159.1961509022226</v>
       </c>
       <c r="I10" t="n">
-        <v>145.1983077799598</v>
+        <v>145.1983077799599</v>
       </c>
       <c r="J10" t="n">
-        <v>102.8929111901397</v>
+        <v>102.89291119014</v>
       </c>
       <c r="K10" t="n">
-        <v>89.40542983242344</v>
+        <v>89.40542983242381</v>
       </c>
       <c r="L10" t="n">
-        <v>84.20029250647436</v>
+        <v>84.20029250647485</v>
       </c>
       <c r="M10" t="n">
-        <v>85.48620773210706</v>
+        <v>85.48620773210757</v>
       </c>
       <c r="N10" t="n">
-        <v>75.51664192881387</v>
+        <v>75.51664192881438</v>
       </c>
       <c r="O10" t="n">
-        <v>90.27011317790188</v>
+        <v>90.27011317790235</v>
       </c>
       <c r="P10" t="n">
-        <v>96.49619276509118</v>
+        <v>96.49619276509158</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.9582327075093</v>
+        <v>122.9582327075096</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9647279217468</v>
+        <v>161.964727921747</v>
       </c>
       <c r="S10" t="n">
         <v>218.0754237862555</v>
       </c>
       <c r="T10" t="n">
-        <v>226.4889635034839</v>
+        <v>226.488963503484</v>
       </c>
       <c r="U10" t="n">
         <v>286.300434131919</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="E12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="F12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="G12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="I12" t="n">
-        <v>34.29303057275499</v>
+        <v>34.29303057275501</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="L12" t="n">
-        <v>23.85821471310703</v>
+        <v>23.85821471311061</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.51344036322898</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>38.51344036322898</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>38.51344036322898</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="R12" t="n">
-        <v>28.05062874204286</v>
+        <v>28.05062874204292</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="T12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="U12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="X12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322898</v>
+        <v>38.51344036322887</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322887</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810494</v>
+        <v>85.08100106221752</v>
       </c>
       <c r="O19" t="n">
-        <v>76.32843350416013</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810494</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J22" t="n">
-        <v>76.32843350416034</v>
+        <v>76.32843350416006</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K25" t="n">
-        <v>86.41330088048454</v>
+        <v>77.66073332242715</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487583</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487571</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487596</v>
+        <v>59.17127986487605</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487662</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487605</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487546</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487603</v>
+        <v>59.17127986487604</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.08100106221845</v>
+        <v>76.32843350415949</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N40" t="n">
-        <v>77.66073332242459</v>
+        <v>77.6607333224263</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810465</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M43" t="n">
-        <v>77.66073332242698</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415949</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J46" t="n">
-        <v>85.08100106221642</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810502</v>
+        <v>76.32843350415939</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.76000582839859</v>
+        <v>0.7600058283985827</v>
       </c>
       <c r="H8" t="n">
-        <v>7.783409690087062</v>
+        <v>7.783409690086987</v>
       </c>
       <c r="I8" t="n">
-        <v>29.30012469933667</v>
+        <v>29.30012469933639</v>
       </c>
       <c r="J8" t="n">
-        <v>64.50454467804489</v>
+        <v>64.50454467804427</v>
       </c>
       <c r="K8" t="n">
-        <v>96.67559139415722</v>
+        <v>96.67559139415629</v>
       </c>
       <c r="L8" t="n">
-        <v>119.9346197650106</v>
+        <v>119.9346197650094</v>
       </c>
       <c r="M8" t="n">
-        <v>133.450373415794</v>
+        <v>133.4503734157927</v>
       </c>
       <c r="N8" t="n">
-        <v>135.6097399757315</v>
+        <v>135.6097399757302</v>
       </c>
       <c r="O8" t="n">
-        <v>128.052432019593</v>
+        <v>128.0524320195918</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2897881310028</v>
+        <v>109.2897881310018</v>
       </c>
       <c r="Q8" t="n">
-        <v>82.07207940147829</v>
+        <v>82.07207940147751</v>
       </c>
       <c r="R8" t="n">
-        <v>47.74071611814297</v>
+        <v>47.74071611814252</v>
       </c>
       <c r="S8" t="n">
-        <v>17.31863281463289</v>
+        <v>17.31863281463272</v>
       </c>
       <c r="T8" t="n">
-        <v>3.326925513814829</v>
+        <v>3.326925513814798</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06080046627188719</v>
+        <v>0.0608004662718866</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4066389675247742</v>
+        <v>0.4066389675247703</v>
       </c>
       <c r="H9" t="n">
-        <v>3.927276344252425</v>
+        <v>3.927276344252387</v>
       </c>
       <c r="I9" t="n">
-        <v>14.00050831170824</v>
+        <v>14.0005083117081</v>
       </c>
       <c r="J9" t="n">
-        <v>38.41846490987352</v>
+        <v>38.41846490987315</v>
       </c>
       <c r="K9" t="n">
-        <v>65.66327573403339</v>
+        <v>65.66327573403275</v>
       </c>
       <c r="L9" t="n">
-        <v>88.29237757593837</v>
+        <v>88.29237757593752</v>
       </c>
       <c r="M9" t="n">
-        <v>103.0330401487114</v>
+        <v>103.0330401487104</v>
       </c>
       <c r="N9" t="n">
-        <v>105.7600181370684</v>
+        <v>105.7600181370673</v>
       </c>
       <c r="O9" t="n">
-        <v>96.74975469875625</v>
+        <v>96.74975469875532</v>
       </c>
       <c r="P9" t="n">
-        <v>77.65020775479658</v>
+        <v>77.65020775479583</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.90710750368873</v>
+        <v>51.90710750368822</v>
       </c>
       <c r="R9" t="n">
-        <v>25.24728607140661</v>
+        <v>25.24728607140636</v>
       </c>
       <c r="S9" t="n">
-        <v>7.553140471348323</v>
+        <v>7.55314047134825</v>
       </c>
       <c r="T9" t="n">
-        <v>1.639040399803804</v>
+        <v>1.639040399803788</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02675256365294568</v>
+        <v>0.02675256365294542</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3409124504845317</v>
+        <v>0.3409124504845284</v>
       </c>
       <c r="H10" t="n">
-        <v>3.03102160521702</v>
+        <v>3.031021605216991</v>
       </c>
       <c r="I10" t="n">
-        <v>10.25216714729847</v>
+        <v>10.25216714729837</v>
       </c>
       <c r="J10" t="n">
-        <v>24.10251024925639</v>
+        <v>24.10251024925616</v>
       </c>
       <c r="K10" t="n">
-        <v>39.60782833811194</v>
+        <v>39.60782833811157</v>
       </c>
       <c r="L10" t="n">
-        <v>50.68438377476393</v>
+        <v>50.68438377476344</v>
       </c>
       <c r="M10" t="n">
-        <v>53.43957621549799</v>
+        <v>53.43957621549747</v>
       </c>
       <c r="N10" t="n">
-        <v>52.16890253641932</v>
+        <v>52.16890253641882</v>
       </c>
       <c r="O10" t="n">
-        <v>48.18642527394091</v>
+        <v>48.18642527394045</v>
       </c>
       <c r="P10" t="n">
-        <v>41.23181128405643</v>
+        <v>41.23181128405604</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.54676892193656</v>
+        <v>28.54676892193628</v>
       </c>
       <c r="R10" t="n">
-        <v>15.32866345542267</v>
+        <v>15.32866345542252</v>
       </c>
       <c r="S10" t="n">
-        <v>5.941174250716791</v>
+        <v>5.941174250716734</v>
       </c>
       <c r="T10" t="n">
-        <v>1.456625924797544</v>
+        <v>1.45662592479753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01859522457188357</v>
+        <v>0.01859522457188339</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.540920418289135</v>
+        <v>3.540920418289133</v>
       </c>
       <c r="H11" t="n">
-        <v>36.26345123380361</v>
+        <v>36.26345123380359</v>
       </c>
       <c r="I11" t="n">
-        <v>136.511334426092</v>
+        <v>136.5113344260919</v>
       </c>
       <c r="J11" t="n">
-        <v>300.5311943517677</v>
+        <v>300.5311943517676</v>
       </c>
       <c r="K11" t="n">
-        <v>450.4183556579469</v>
+        <v>450.4183556579467</v>
       </c>
       <c r="L11" t="n">
-        <v>558.7837989091631</v>
+        <v>558.7837989091628</v>
       </c>
       <c r="M11" t="n">
-        <v>621.7546423979124</v>
+        <v>621.7546423979122</v>
       </c>
       <c r="N11" t="n">
-        <v>631.8152825363766</v>
+        <v>631.8152825363762</v>
       </c>
       <c r="O11" t="n">
-        <v>596.6052551270139</v>
+        <v>596.6052551270136</v>
       </c>
       <c r="P11" t="n">
-        <v>509.1887823005008</v>
+        <v>509.1887823005006</v>
       </c>
       <c r="Q11" t="n">
-        <v>382.3795698205211</v>
+        <v>382.3795698205209</v>
       </c>
       <c r="R11" t="n">
-        <v>222.4273422253551</v>
+        <v>222.4273422253549</v>
       </c>
       <c r="S11" t="n">
-        <v>80.68872403176374</v>
+        <v>80.6887240317637</v>
       </c>
       <c r="T11" t="n">
-        <v>15.5003791310607</v>
+        <v>15.50037913106069</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2832736334631307</v>
+        <v>0.2832736334631306</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.894559448332721</v>
+        <v>1.89455944833272</v>
       </c>
       <c r="H12" t="n">
-        <v>18.29745572468707</v>
+        <v>18.29745572468706</v>
       </c>
       <c r="I12" t="n">
-        <v>65.22934942724501</v>
+        <v>65.22934942724498</v>
       </c>
       <c r="J12" t="n">
-        <v>178.9943205111191</v>
+        <v>178.994320511119</v>
       </c>
       <c r="K12" t="n">
-        <v>305.9298035494114</v>
+        <v>305.9298035494112</v>
       </c>
       <c r="L12" t="n">
-        <v>411.3603749548744</v>
+        <v>411.3603749548742</v>
       </c>
       <c r="M12" t="n">
-        <v>480.0381549569354</v>
+        <v>480.0381549569352</v>
       </c>
       <c r="N12" t="n">
-        <v>492.7433365205353</v>
+        <v>492.743336520535</v>
       </c>
       <c r="O12" t="n">
-        <v>450.7638876916891</v>
+        <v>450.7638876916889</v>
       </c>
       <c r="P12" t="n">
-        <v>361.7777599189036</v>
+        <v>361.7777599189034</v>
       </c>
       <c r="Q12" t="n">
-        <v>241.8388516854189</v>
+        <v>241.8388516854188</v>
       </c>
       <c r="R12" t="n">
-        <v>117.6288752219211</v>
+        <v>117.628875221921</v>
       </c>
       <c r="S12" t="n">
-        <v>35.19061080565381</v>
+        <v>35.19061080565379</v>
       </c>
       <c r="T12" t="n">
-        <v>7.636404092183202</v>
+        <v>7.636404092183198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.124642068969258</v>
+        <v>0.1246420689692579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.588334999105517</v>
+        <v>1.588334999105516</v>
       </c>
       <c r="H13" t="n">
-        <v>14.12174208295633</v>
+        <v>14.12174208295632</v>
       </c>
       <c r="I13" t="n">
-        <v>47.76556524582773</v>
+        <v>47.76556524582771</v>
       </c>
       <c r="J13" t="n">
         <v>112.29528443676</v>
       </c>
       <c r="K13" t="n">
-        <v>184.5356480778954</v>
+        <v>184.5356480778953</v>
       </c>
       <c r="L13" t="n">
-        <v>236.142096139742</v>
+        <v>236.1420961397419</v>
       </c>
       <c r="M13" t="n">
-        <v>248.9787308143311</v>
+        <v>248.978730814331</v>
       </c>
       <c r="N13" t="n">
-        <v>243.0585730903925</v>
+        <v>243.0585730903924</v>
       </c>
       <c r="O13" t="n">
-        <v>224.5039324190235</v>
+        <v>224.5039324190234</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1018984372708</v>
+        <v>192.1018984372707</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.0013970614629</v>
+        <v>133.0013970614628</v>
       </c>
       <c r="R13" t="n">
-        <v>71.41731732341712</v>
+        <v>71.41731732341708</v>
       </c>
       <c r="S13" t="n">
-        <v>27.68034721168431</v>
+        <v>27.6803472116843</v>
       </c>
       <c r="T13" t="n">
-        <v>6.786522268905387</v>
+        <v>6.786522268905384</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08663645449666464</v>
+        <v>0.0866364544966646</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>119.4852898250815</v>
+        <v>119.4852898250813</v>
       </c>
       <c r="K11" t="n">
-        <v>230.3285046129664</v>
+        <v>230.3285046129661</v>
       </c>
       <c r="L11" t="n">
-        <v>323.0173839391759</v>
+        <v>323.0173839391755</v>
       </c>
       <c r="M11" t="n">
-        <v>391.4084091706397</v>
+        <v>391.4084091706395</v>
       </c>
       <c r="N11" t="n">
-        <v>402.4022189397857</v>
+        <v>402.4022189397853</v>
       </c>
       <c r="O11" t="n">
-        <v>366.5070437053272</v>
+        <v>366.5070437053269</v>
       </c>
       <c r="P11" t="n">
-        <v>277.9557865452313</v>
+        <v>277.955786545231</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.0738799460716</v>
+        <v>160.0738799460714</v>
       </c>
       <c r="R11" t="n">
-        <v>6.841804411222938</v>
+        <v>6.841804411222824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.15669384445238</v>
+        <v>90.67013420768117</v>
       </c>
       <c r="K12" t="n">
-        <v>168.0883645750524</v>
+        <v>206.6018049382811</v>
       </c>
       <c r="L12" t="n">
-        <v>296.6642098881073</v>
+        <v>296.6642098881106</v>
       </c>
       <c r="M12" t="n">
-        <v>337.9041210349171</v>
+        <v>337.9041210349169</v>
       </c>
       <c r="N12" t="n">
-        <v>399.9150648004309</v>
+        <v>361.4016244372017</v>
       </c>
       <c r="O12" t="n">
-        <v>346.6810836104736</v>
+        <v>308.1676432472444</v>
       </c>
       <c r="P12" t="n">
-        <v>266.3167928678023</v>
+        <v>227.8033525045732</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.8570775993974</v>
+        <v>140.3705179626262</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.44954468331622</v>
+        <v>57.44954468331606</v>
       </c>
       <c r="K13" t="n">
-        <v>200.7795966152416</v>
+        <v>200.7795966152414</v>
       </c>
       <c r="L13" t="n">
-        <v>302.2455617632872</v>
+        <v>302.245561763287</v>
       </c>
       <c r="M13" t="n">
-        <v>327.0760481394007</v>
+        <v>327.0760481394004</v>
       </c>
       <c r="N13" t="n">
-        <v>325.7041858328501</v>
+        <v>325.7041858328499</v>
       </c>
       <c r="O13" t="n">
-        <v>287.6025006962921</v>
+        <v>287.6025006962919</v>
       </c>
       <c r="P13" t="n">
-        <v>227.8938980653932</v>
+        <v>227.893898065393</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.35279417299745</v>
+        <v>85.35279417299728</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629505</v>
+        <v>84.09185697629513</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5610999075484</v>
+        <v>244.5610999075485</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2708125334269</v>
+        <v>358.270812533427</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1468197567126</v>
+        <v>386.1468197567128</v>
       </c>
       <c r="N16" t="n">
-        <v>383.3703865307689</v>
+        <v>383.370386530769</v>
       </c>
       <c r="O16" t="n">
-        <v>340.8665705858685</v>
+        <v>340.8665705858687</v>
       </c>
       <c r="P16" t="n">
-        <v>273.4705115083392</v>
+        <v>273.4705115083394</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.9076789011225</v>
+        <v>116.9076789011226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J19" t="n">
         <v>109.6268955184478</v>
@@ -36045,25 +36045,25 @@
         <v>196.988613427772</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>258.1202303852958</v>
       </c>
       <c r="O19" t="n">
-        <v>215.6398973609174</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057606</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36273,13 +36273,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J22" t="n">
-        <v>88.27060879450323</v>
+        <v>88.27060879450295</v>
       </c>
       <c r="K22" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
@@ -36288,19 +36288,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>185.7171940801516</v>
+        <v>176.9646265220942</v>
       </c>
       <c r="L25" t="n">
         <v>157.2826706286437</v>
@@ -36531,13 +36531,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,25 +36589,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.59435009195002</v>
+        <v>17.5943500919501</v>
       </c>
       <c r="J26" t="n">
-        <v>249.9582808335885</v>
+        <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L26" t="n">
         <v>514.7613942572082</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N26" t="n">
         <v>611.4731152777874</v>
       </c>
       <c r="O26" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530948</v>
       </c>
       <c r="P26" t="n">
         <v>457.9332660842479</v>
@@ -36616,7 +36616,7 @@
         <v>309.9655846685955</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7844784071007</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779422</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K28" t="n">
-        <v>168.8989254352464</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L28" t="n">
-        <v>378.9286520350741</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
-        <v>406.8046592583598</v>
+        <v>245.1416869066571</v>
       </c>
       <c r="N28" t="n">
         <v>404.0282260324161</v>
@@ -36768,10 +36768,10 @@
         <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
-        <v>159.1217876959453</v>
+        <v>159.1217876959454</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.22256002501817</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,13 +36826,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.59435009195008</v>
+        <v>17.5943500919501</v>
       </c>
       <c r="J29" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L29" t="n">
         <v>514.7613942572082</v>
@@ -36841,10 +36841,10 @@
         <v>598.0923956951028</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530957</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P29" t="n">
         <v>457.9332660842479</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.11345515521892</v>
+        <v>71.11345515521893</v>
       </c>
       <c r="K31" t="n">
-        <v>230.57026980981</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M31" t="n">
-        <v>406.8046592583598</v>
+        <v>406.8046592583599</v>
       </c>
       <c r="N31" t="n">
-        <v>404.0282260324161</v>
+        <v>276.0014950034366</v>
       </c>
       <c r="O31" t="n">
-        <v>198.4827437216333</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1283510099864</v>
+        <v>159.1217876959454</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.22256002501823</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195008</v>
+        <v>17.5943500919501</v>
       </c>
       <c r="J32" t="n">
-        <v>249.9582808335886</v>
+        <v>249.958280833588</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L32" t="n">
         <v>514.7613942572082</v>
@@ -37078,7 +37078,7 @@
         <v>598.0923956951028</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777875</v>
+        <v>611.4731152777874</v>
       </c>
       <c r="O32" t="n">
         <v>567.2242807530952</v>
@@ -37227,13 +37227,13 @@
         <v>71.11345515521893</v>
       </c>
       <c r="K34" t="n">
-        <v>246.0382643533732</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L34" t="n">
-        <v>378.9286520350742</v>
+        <v>216.4539504935198</v>
       </c>
       <c r="M34" t="n">
-        <v>228.2949983489142</v>
+        <v>371.5890248346457</v>
       </c>
       <c r="N34" t="n">
         <v>404.0282260324161</v>
@@ -37245,7 +37245,7 @@
         <v>294.1283510099865</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.22256002501823</v>
+        <v>72.22256002501824</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.13228122236065</v>
+        <v>89.37971366430169</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.626895518448</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>250.6999626455029</v>
+        <v>250.6999626455046</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848624</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882473</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057734</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,22 +37932,22 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>246.7844518064652</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
         <v>236.9961840848623</v>
@@ -37956,10 +37956,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>89.37971366430169</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266925</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J46" t="n">
-        <v>97.0231763525593</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>249.3676628272377</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
